--- a/definition/xlsx/UGT1A1_allele_definition_table.xlsx
+++ b/definition/xlsx/UGT1A1_allele_definition_table.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jing/work/pharmacogenomics/PharmGKB/allele_definition_table_1_12_19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavita/Dropbox (Personal)/PhamacoProject/allele_definition_table_new_1_12_19_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B15C061-581D-4B46-B64E-11DBD9AA5FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="26260" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="26260" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Alleles" sheetId="1" r:id="rId1"/>
     <sheet name="Change log" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -219,9 +221,6 @@
     <t>Promoter region</t>
   </si>
   <si>
-    <t>g.233760233</t>
-  </si>
-  <si>
     <t>CAT</t>
   </si>
   <si>
@@ -275,11 +274,14 @@
   <si>
     <t>Updated format, removed function column</t>
   </si>
+  <si>
+    <t>g.233760233</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -353,12 +355,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -415,7 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -449,9 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +478,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -825,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,7 +855,7 @@
     <col min="1" max="1" width="28.5" style="8" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.1640625" style="8" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.6640625" style="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5" style="22" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="17.6640625" style="8" customWidth="1" collapsed="1"/>
     <col min="7" max="160" width="11" style="8" collapsed="1"/>
     <col min="161" max="174" width="11" style="8"/>
@@ -846,12 +864,12 @@
     <col min="192" max="16384" width="11" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -861,8 +879,8 @@
       <c r="C2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
+      <c r="D2" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>37</v>
@@ -871,7 +889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -881,7 +899,7 @@
       <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="24" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -891,7 +909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -901,8 +919,8 @@
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>45</v>
+      <c r="D4" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>23</v>
@@ -911,7 +929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -921,8 +939,8 @@
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>50</v>
+      <c r="D5" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>24</v>
@@ -935,27 +953,27 @@
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
@@ -963,19 +981,19 @@
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -985,7 +1003,7 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="11" t="s">
         <v>1</v>
       </c>
@@ -997,7 +1015,7 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
         <v>1</v>
@@ -1009,8 +1027,8 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
+      <c r="D11" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="11"/>
@@ -1021,7 +1039,7 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="9"/>
@@ -1033,8 +1051,8 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>49</v>
+      <c r="D13" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="11"/>
@@ -1047,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="9"/>
       <c r="F14" s="11"/>
     </row>
@@ -1059,52 +1077,54 @@
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="9"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>48</v>
+      <c r="D16" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
+      <c r="D17" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1127,29 +1147,24 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>53</v>
+      <c r="A26" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>56</v>
+      <c r="A27" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38A8436-EA72-6A4B-9859-FD1873850901}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1161,25 +1176,25 @@
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>43746</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22">
-        <v>43042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
-        <v>43746</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
